--- a/학습자료/단답형/객관식_영어_단어_Day06.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day06.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>publicize
-1. 보상하다
-2. 절연된, 격리된
-3. 알리다</t>
+1. 연락하다
+2. 알리다
+3. 방수의</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 알리다</t>
+          <t>2, 알리다</t>
         </is>
       </c>
     </row>
@@ -464,189 +464,189 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>broadcast
-1. 위생적인, 깨끗한
+1. 알리다
+2. 연결하다, 가입하다
+3. 재활용할 수 있는, 재생가능한</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 알리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>inform
+1. 재활용할 수 있는, 재생가능한
+2. 알리다
+3. 유발하다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 알리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>notify
+1. 보상하다
 2. 유발하다
 3. 알리다</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>3, 알리다</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>inform
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>impart
+1. 위생적인, 깨끗한
+2. 보상하다
+3. 알리다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 알리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>join
+1. 연결하다, 가입하다
+2. 절연된, 격리된
+3. 연락하다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>couple
 1. 절연된, 격리된
+2. 연결하다, 가입하다
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>interlink
+1. 절연된, 격리된
+2. 방수의
+3. 연결하다, 가입하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>affiliate
+1. 위생적인, 깨끗한
+2. 연결하다, 가입하다
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>subscribe
+1. 유발하다
+2. 연결하다, 가입하다
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sign up
+1. 연결하다, 가입하다
+2. 돌보다, 보살피다
+3. 알리다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 연결하다, 가입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sanitary
+1. 위생적인, 깨끗한
+2. 돌보다, 보살피다
+3. 보상하다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 위생적인, 깨끗한</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hygienic
+1. 위생적인, 깨끗한
 2. 알리다
-3. 보상하다</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, 알리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>notify
-1. 알리다
+3. 연락하다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 위생적인, 깨끗한</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>stainless
+1. 위생적인, 깨끗한
 2. 재활용할 수 있는, 재생가능한
 3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 알리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>impart
-1. 알리다
-2. 위생적인, 깨끗한
-3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1, 알리다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>join
-1. 연결하다, 가입하다
-2. 유발하다
-3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>couple
-1. 연결하다, 가입하다
-2. 돌보다, 보살피다
-3. 위생적인, 깨끗한</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>interlink
-1. 보상하다
-2. 연결하다, 가입하다
-3. 방수의</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>affiliate
-1. 알리다
-2. 연락하다
-3. 연결하다, 가입하다</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>subscribe
-1. 알리다
-2. 재활용할 수 있는, 재생가능한
-3. 연결하다, 가입하다</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>sign up
-1. 연결하다, 가입하다
-2. 재활용할 수 있는, 재생가능한
-3. 알리다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 연결하다, 가입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>sanitary
-1. 위생적인, 깨끗한
-2. 연결하다, 가입하다
-3. 연락하다</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, 위생적인, 깨끗한</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>hygienic
-1. 유발하다
-2. 보상하다
-3. 위생적인, 깨끗한</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 위생적인, 깨끗한</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>stainless
-1. 위생적인, 깨끗한
-2. 보상하다
-3. 방수의</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -661,7 +661,7 @@
           <t>taintless
 1. 연락하다
 2. 위생적인, 깨끗한
-3. 돌보다, 보살피다</t>
+3. 방수의</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>immaculate
-1. 연결하다, 가입하다
-2. 위생적인, 깨끗한
-3. 돌보다, 보살피다</t>
+1. 위생적인, 깨끗한
+2. 방수의
+3. 유발하다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 위생적인, 깨끗한</t>
+          <t>1, 위생적인, 깨끗한</t>
         </is>
       </c>
     </row>
@@ -689,8 +689,8 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>insulated
-1. 돌보다, 보살피다
-2. 보상하다
+1. 연결하다, 가입하다
+2. 돌보다, 보살피다
 3. 절연된, 격리된</t>
         </is>
       </c>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>isolated
-1. 알리다
-2. 절연된, 격리된
-3. 방수의</t>
+1. 돌보다, 보살피다
+2. 연결하다, 가입하다
+3. 절연된, 격리된</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 절연된, 격리된</t>
+          <t>3, 절연된, 격리된</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>segregated
-1. 재활용할 수 있는, 재생가능한
-2. 절연된, 격리된
-3. 알리다</t>
+1. 방수의
+2. 위생적인, 깨끗한
+3. 절연된, 격리된</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 절연된, 격리된</t>
+          <t>3, 절연된, 격리된</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>secluded
-1. 연락하다
-2. 보상하다
-3. 절연된, 격리된</t>
+1. 절연된, 격리된
+2. 위생적인, 깨끗한
+3. 유발하다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 절연된, 격리된</t>
+          <t>1, 절연된, 격리된</t>
         </is>
       </c>
     </row>
@@ -749,8 +749,8 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>recyclable
-1. 연결하다, 가입하다
-2. 연락하다
+1. 유발하다
+2. 보상하다
 3. 재활용할 수 있는, 재생가능한</t>
         </is>
       </c>
@@ -764,41 +764,41 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>reusable
-1. 보상하다
-2. 재활용할 수 있는, 재생가능한
-3. 연결하다, 가입하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 재활용할 수 있는, 재생가능한</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>renewable
-1. 유발하다
-2. 돌보다, 보살피다
-3. 재활용할 수 있는, 재생가능한</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 재활용할 수 있는, 재생가능한</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>regenerable
 1. 돌보다, 보살피다
 2. 재활용할 수 있는, 재생가능한
 3. 보상하다</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 재활용할 수 있는, 재생가능한</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>renewable
+1. 돌보다, 보살피다
+2. 재활용할 수 있는, 재생가능한
+3. 절연된, 격리된</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 재활용할 수 있는, 재생가능한</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>regenerable
+1. 연결하다, 가입하다
+2. 재활용할 수 있는, 재생가능한
+3. 유발하다</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>2, 재활용할 수 있는, 재생가능한</t>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>reclaimable
-1. 재활용할 수 있는, 재생가능한
+1. 연결하다, 가입하다
 2. 방수의
-3. 돌보다, 보살피다</t>
+3. 재활용할 수 있는, 재생가능한</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 재활용할 수 있는, 재생가능한</t>
+          <t>3, 재활용할 수 있는, 재생가능한</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>waterproof
-1. 연결하다, 가입하다
-2. 방수의
-3. 절연된, 격리된</t>
+1. 방수의
+2. 유발하다
+3. 재활용할 수 있는, 재생가능한</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 방수의</t>
+          <t>1, 방수의</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>water-resistant
-1. 알리다
-2. 연락하다
-3. 방수의</t>
+1. 돌보다, 보살피다
+2. 방수의
+3. 보상하다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 방수의</t>
+          <t>2, 방수의</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <is>
           <t>watertight
 1. 방수의
-2. 돌보다, 보살피다
+2. 연락하다
 3. 절연된, 격리된</t>
         </is>
       </c>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>staunch
-1. 방수의
-2. 알리다
-3. 위생적인, 깨끗한</t>
+1. 유발하다
+2. 재활용할 수 있는, 재생가능한
+3. 방수의</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 방수의</t>
+          <t>3, 방수의</t>
         </is>
       </c>
     </row>
@@ -884,281 +884,281 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>waxed
+1. 보상하다
+2. 절연된, 격리된
+3. 방수의</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 방수의</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>touch off
+1. 위생적인, 깨끗한
+2. 절연된, 격리된
+3. 유발하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 유발하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>give rise to
+1. 알리다
+2. 유발하다
+3. 절연된, 격리된</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 유발하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>trigger
+1. 연락하다
+2. 유발하다
+3. 절연된, 격리된</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 유발하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>stir
 1. 방수의
+2. 유발하다
+3. 절연된, 격리된</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 유발하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>provoke
+1. 유발하다
+2. 돌보다, 보살피다
+3. 방수의</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 유발하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>look after
+1. 재활용할 수 있는, 재생가능한
+2. 절연된, 격리된
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 돌보다, 보살피다</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>take care of
+1. 유발하다
+2. 위생적인, 깨끗한
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 돌보다, 보살피다</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>care for
+1. 연락하다
+2. 돌보다, 보살피다
+3. 연결하다, 가입하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 돌보다, 보살피다</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>tend
+1. 돌보다, 보살피다
+2. 연락하다
+3. 위생적인, 깨끗한</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 돌보다, 보살피다</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>make up for
+1. 연결하다, 가입하다
+2. 보상하다
+3. 돌보다, 보살피다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>compensate
+1. 위생적인, 깨끗한
+2. 방수의
+3. 보상하다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>remunerate
+1. 유발하다
+2. 방수의
+3. 보상하다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>recompense
+1. 유발하다
+2. 절연된, 격리된
+3. 보상하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>indemnify
+1. 연결하다, 가입하다
+2. 재활용할 수 있는, 재생가능한
+3. 보상하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>reciprocate
+1. 보상하다
+2. 방수의
+3. 유발하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>reimburse
+1. 보상하다
 2. 돌보다, 보살피다
 3. 알리다</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 방수의</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>touch off
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 보상하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>keep in contact with
 1. 연락하다
-2. 유발하다
-3. 보상하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 유발하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>give rise to
+2. 돌보다, 보살피다
+3. 알리다</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 연락하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>get[keep] in touch (with)
 1. 위생적인, 깨끗한
 2. 연락하다
 3. 유발하다</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 유발하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>trigger
-1. 위생적인, 깨끗한
-2. 유발하다
-3. 방수의</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2, 유발하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>stir
-1. 연결하다, 가입하다
-2. 위생적인, 깨끗한
-3. 유발하다</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 유발하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>provoke
-1. 보상하다
-2. 유발하다
-3. 연락하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 유발하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>look after
-1. 알리다
-2. 연락하다
-3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3, 돌보다, 보살피다</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>take care of
-1. 연락하다
-2. 알리다
-3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 돌보다, 보살피다</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>care for
-1. 위생적인, 깨끗한
-2. 알리다
-3. 돌보다, 보살피다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 돌보다, 보살피다</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>tend
-1. 돌보다, 보살피다
-2. 위생적인, 깨끗한
-3. 절연된, 격리된</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 돌보다, 보살피다</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>make up for
-1. 보상하다
-2. 절연된, 격리된
-3. 방수의</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>compensate
-1. 연락하다
-2. 유발하다
-3. 보상하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>remunerate
-1. 유발하다
-2. 절연된, 격리된
-3. 보상하다</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>recompense
-1. 알리다
-2. 보상하다
-3. 방수의</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>indemnify
-1. 연락하다
-2. 보상하다
-3. 알리다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>reciprocate
-1. 연결하다, 가입하다
-2. 방수의
-3. 보상하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>reimburse
-1. 보상하다
-2. 알리다
-3. 위생적인, 깨끗한</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1, 보상하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>keep in contact with
-1. 방수의
-2. 연결하다, 가입하다
-3. 연락하다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3, 연락하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>get[keep] in touch (with)
-1. 위생적인, 깨끗한
-2. 연락하다
-3. 방수의</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>2, 연락하다</t>
@@ -1170,8 +1170,8 @@
         <is>
           <t>get hold of
 1. 연락하다
-2. 알리다
-3. 연결하다, 가입하다</t>
+2. 위생적인, 깨끗한
+3. 방수의</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>communicate
-1. 보상하다
-2. 연락하다
-3. 절연된, 격리된</t>
+1. 연락하다
+2. 돌보다, 보살피다
+3. 위생적인, 깨끗한</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 연락하다</t>
+          <t>1, 연락하다</t>
         </is>
       </c>
     </row>
